--- a/data/trans_dic/IP15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP15-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,59; 31,06</t>
+          <t>16,32; 30,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,37; 29,26</t>
+          <t>13,88; 28,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 21,14</t>
+          <t>7,17; 20,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,93; 35,87</t>
+          <t>15,66; 34,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 32,58</t>
+          <t>17,57; 31,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,0; 33,44</t>
+          <t>18,57; 33,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 36,39</t>
+          <t>17,42; 36,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,71; 39,51</t>
+          <t>14,43; 37,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,77; 29,22</t>
+          <t>19,45; 29,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,05; 28,22</t>
+          <t>18,38; 28,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,97; 25,95</t>
+          <t>13,35; 25,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,49; 33,97</t>
+          <t>17,51; 32,82</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 21,21</t>
+          <t>15,76; 21,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,86; 23,57</t>
+          <t>17,42; 23,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,96; 20,59</t>
+          <t>14,78; 20,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,11; 27,04</t>
+          <t>20,03; 27,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,38; 22,82</t>
+          <t>16,16; 22,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,78; 23,03</t>
+          <t>16,47; 22,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,59; 20,33</t>
+          <t>15,05; 20,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,22; 28,45</t>
+          <t>19,03; 28,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,77; 21,07</t>
+          <t>16,9; 21,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,92; 22,21</t>
+          <t>17,91; 22,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,6; 19,6</t>
+          <t>15,47; 19,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,52; 25,73</t>
+          <t>20,46; 26,01</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,27; 27,55</t>
+          <t>17,54; 28,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,02; 29,23</t>
+          <t>17,86; 29,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,51; 20,49</t>
+          <t>11,12; 20,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,54; 31,09</t>
+          <t>19,41; 31,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,94; 17,34</t>
+          <t>9,11; 17,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 27,33</t>
+          <t>16,71; 27,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 21,27</t>
+          <t>12,34; 21,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,15; 33,66</t>
+          <t>21,97; 33,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 21,09</t>
+          <t>14,43; 20,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,68; 26,21</t>
+          <t>18,76; 26,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,6</t>
+          <t>12,93; 19,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,13; 30,22</t>
+          <t>22,4; 30,4</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,58; 22,37</t>
+          <t>17,86; 22,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,73; 23,95</t>
+          <t>18,76; 23,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,35; 19,17</t>
+          <t>14,43; 18,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,93; 26,86</t>
+          <t>21,16; 26,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,15; 20,7</t>
+          <t>15,98; 20,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,08; 23,39</t>
+          <t>18,37; 23,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,73; 20,4</t>
+          <t>16,01; 20,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,12; 28,17</t>
+          <t>20,85; 28,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,49; 20,98</t>
+          <t>17,53; 20,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,09; 22,76</t>
+          <t>19,27; 22,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,75; 18,92</t>
+          <t>15,74; 18,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,69; 26,21</t>
+          <t>21,65; 26,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP15-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,3%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>17,25; 31,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>17,63; 32,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,45; 37,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,29; 53,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,99; 31,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,36; 29,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,12; 21,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>16,39; 35,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>18,82; 28,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>18,47; 28,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,51; 25,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>19,46; 40,18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>24,69%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,32; 30,66</t>
+          <t>16,41; 22,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 28,63</t>
+          <t>16,72; 22,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 20,94</t>
+          <t>14,84; 20,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,66; 34,86</t>
+          <t>20,54; 40,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,57; 31,24</t>
+          <t>15,7; 21,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,57; 33,26</t>
+          <t>17,45; 23,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,42; 36,98</t>
+          <t>14,84; 20,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,43; 37,95</t>
+          <t>19,73; 26,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,45; 29,65</t>
+          <t>16,93; 21,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,38; 28,33</t>
+          <t>18,07; 22,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,35; 25,24</t>
+          <t>15,93; 19,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,51; 32,82</t>
+          <t>21,41; 31,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>26,48%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,76; 21,32</t>
+          <t>9,43; 17,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,42; 23,41</t>
+          <t>16,66; 27,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,78; 20,22</t>
+          <t>12,36; 21,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,03; 27,03</t>
+          <t>22,05; 34,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,16; 22,62</t>
+          <t>16,62; 27,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,47; 22,71</t>
+          <t>17,79; 28,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,05; 20,83</t>
+          <t>11,6; 20,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,03; 28,09</t>
+          <t>19,4; 31,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,9; 21,14</t>
+          <t>14,3; 20,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,91; 22,08</t>
+          <t>18,91; 26,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,47; 19,32</t>
+          <t>12,96; 19,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,46; 26,01</t>
+          <t>22,56; 31,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>25,32%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,54; 28,31</t>
+          <t>16,07; 20,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,86; 29,06</t>
+          <t>18,26; 23,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,12; 20,03</t>
+          <t>15,72; 20,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,41; 31,11</t>
+          <t>22,6; 38,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,11; 17,42</t>
+          <t>17,48; 22,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 27,27</t>
+          <t>18,63; 23,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,34; 21,45</t>
+          <t>14,34; 18,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,97; 33,32</t>
+          <t>20,87; 26,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,43; 20,78</t>
+          <t>17,57; 21,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,76; 26,28</t>
+          <t>19,16; 22,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,93; 19,43</t>
+          <t>15,61; 18,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,4; 30,4</t>
+          <t>22,82; 30,56</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>19,91%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>21,09%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>16,55%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>23,8%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>18,4%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>20,76%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>18,1%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>23,74%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>19,18%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>20,93%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>17,3%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>23,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>17,86; 22,53</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>18,76; 23,62</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>14,43; 18,75</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>21,16; 26,95</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>15,98; 20,72</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>18,37; 23,32</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>16,01; 20,45</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>20,85; 28,06</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>17,53; 20,97</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>19,27; 22,87</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>15,74; 18,92</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>21,65; 26,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
